--- a/PMS需求、BUG清单.xlsx
+++ b/PMS需求、BUG清单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,6 +194,48 @@
   </si>
   <si>
     <t>211.142.59.66:88，系统的外网地址，在能上网的地方都可以访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用计算结果不对，应限制查询月份的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存查询名称、型号不能查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存查询按库存量排序(大到小)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有的库存结果不对，应该为0但是不为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘浩波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因：型号填写不一致造成的
+处理：
+查询库存时，group by 中去掉itemname和itemmodel，unit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -240,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -263,13 +305,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -302,12 +355,35 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -619,21 +695,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="76.5" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -960,8 +1037,12 @@
       <c r="E14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="5">
+        <v>42527</v>
+      </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -1052,10 +1133,93 @@
       </c>
       <c r="H18" s="4"/>
     </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="5">
+        <v>42527</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="5">
+        <v>42527</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="5">
+        <v>42527</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>42559</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="3">
+        <v>42559</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:XFD199">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$F2="已完成"</formula>
     </cfRule>
   </conditionalFormatting>
